--- a/assets/Deps and subjects.xlsx
+++ b/assets/Deps and subjects.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xeon2035/Documents/LOCALDEV/UnivDB/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03E9C0E-532C-F346-8ABB-E41C0755D4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3800701E-0AC3-4849-9B44-EAF37C0F6BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="220" windowWidth="25600" windowHeight="13900" activeTab="2" xr2:uid="{10C72A50-B774-A442-B810-CF8EB019F042}"/>
+    <workbookView xWindow="25600" yWindow="220" windowWidth="25600" windowHeight="13900" activeTab="1" xr2:uid="{10C72A50-B774-A442-B810-CF8EB019F042}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="3" r:id="rId1"/>
-    <sheet name="PROG" sheetId="1" r:id="rId2"/>
-    <sheet name="DEPT" sheetId="2" r:id="rId3"/>
-    <sheet name="STAFFROLE" sheetId="4" r:id="rId4"/>
+    <sheet name="USER" sheetId="5" r:id="rId2"/>
+    <sheet name="PROG" sheetId="1" r:id="rId3"/>
+    <sheet name="DEPT" sheetId="2" r:id="rId4"/>
+    <sheet name="STAFFROLE" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ALL!$A$1:$I$188</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DEPT!$A$1:$B$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PROG!$A$1:$F$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DEPT!$A$1:$B$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PROG!$A$1:$F$167</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="583">
   <si>
     <t>Architecture</t>
   </si>
@@ -1394,13 +1395,412 @@
   </si>
   <si>
     <t>Regional Office</t>
+  </si>
+  <si>
+    <t>Computer Vision &amp; Graphics</t>
+  </si>
+  <si>
+    <t>USERID</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>FNAME</t>
+  </si>
+  <si>
+    <t>LNAME</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>ACCTYPEID</t>
+  </si>
+  <si>
+    <t>PWORD</t>
+  </si>
+  <si>
+    <t>DATECREATED</t>
+  </si>
+  <si>
+    <t>DATEMODIFIED</t>
+  </si>
+  <si>
+    <t>RICKI</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>JOHNSON</t>
+  </si>
+  <si>
+    <t>p@ssw0rd1</t>
+  </si>
+  <si>
+    <t>JACOB</t>
+  </si>
+  <si>
+    <t>SMITH</t>
+  </si>
+  <si>
+    <t>qwerty2</t>
+  </si>
+  <si>
+    <t>OLIVIA</t>
+  </si>
+  <si>
+    <t>BROWN</t>
+  </si>
+  <si>
+    <t>1234abcd</t>
+  </si>
+  <si>
+    <t>MICHAEL</t>
+  </si>
+  <si>
+    <t>WILLIAMS</t>
+  </si>
+  <si>
+    <t>abcD1234</t>
+  </si>
+  <si>
+    <t>SOPHIA</t>
+  </si>
+  <si>
+    <t>JONES</t>
+  </si>
+  <si>
+    <t>pass1234</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>DAVIS</t>
+  </si>
+  <si>
+    <t>1q2w3e4r</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>Password1</t>
+  </si>
+  <si>
+    <t>NOAH</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>5678Qwer</t>
+  </si>
+  <si>
+    <t>AVA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1A2b3C4d</t>
+  </si>
+  <si>
+    <t>ETHAN</t>
+  </si>
+  <si>
+    <t>LEE</t>
+  </si>
+  <si>
+    <t>8y7x6z5w</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>HARRIS</t>
+  </si>
+  <si>
+    <t>MyP@ssw0rd</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>CLARK</t>
+  </si>
+  <si>
+    <t>Qwerty123</t>
+  </si>
+  <si>
+    <t>CHARLOTTE</t>
+  </si>
+  <si>
+    <t>LEWIS</t>
+  </si>
+  <si>
+    <t>zXy1234!</t>
+  </si>
+  <si>
+    <t>BENJAMIN</t>
+  </si>
+  <si>
+    <t>WALKER</t>
+  </si>
+  <si>
+    <t>9b8V7c6T</t>
+  </si>
+  <si>
+    <t>AMELIA</t>
+  </si>
+  <si>
+    <t>HALL</t>
+  </si>
+  <si>
+    <t>Secret1!</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>ALLEN</t>
+  </si>
+  <si>
+    <t>1234abcd!</t>
+  </si>
+  <si>
+    <t>HARPER</t>
+  </si>
+  <si>
+    <t>YOUNG</t>
+  </si>
+  <si>
+    <t>1a2B3c4D</t>
+  </si>
+  <si>
+    <t>JAMES</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>Welcome1</t>
+  </si>
+  <si>
+    <t>EVELYN</t>
+  </si>
+  <si>
+    <t>KING</t>
+  </si>
+  <si>
+    <t>2024Pass</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>WRIGHT</t>
+  </si>
+  <si>
+    <t>7y6x5z4w</t>
+  </si>
+  <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
+    <t>SCOTT</t>
+  </si>
+  <si>
+    <t>Pa$$w0rd</t>
+  </si>
+  <si>
+    <t>MILY</t>
+  </si>
+  <si>
+    <t>JACKSON</t>
+  </si>
+  <si>
+    <t>ADAMS</t>
+  </si>
+  <si>
+    <t>qW3r5Ty1</t>
+  </si>
+  <si>
+    <t>ARIA</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>F4tR$2z9</t>
+  </si>
+  <si>
+    <t>LOGAN</t>
+  </si>
+  <si>
+    <t>BAKER</t>
+  </si>
+  <si>
+    <t>Z1X2y3c4</t>
+  </si>
+  <si>
+    <t>CHLOE</t>
+  </si>
+  <si>
+    <t>PERRY</t>
+  </si>
+  <si>
+    <t>8*5t@7Wz</t>
+  </si>
+  <si>
+    <t>MICHAELA</t>
+  </si>
+  <si>
+    <t>MURPHY</t>
+  </si>
+  <si>
+    <t>3m5&amp;9K1d</t>
+  </si>
+  <si>
+    <t>AVERY</t>
+  </si>
+  <si>
+    <t>COOK</t>
+  </si>
+  <si>
+    <t>W7!r9*Q8</t>
+  </si>
+  <si>
+    <t>LILY</t>
+  </si>
+  <si>
+    <t>ROGERS</t>
+  </si>
+  <si>
+    <t>1r#2S5x7</t>
+  </si>
+  <si>
+    <t>USR340MJ</t>
+  </si>
+  <si>
+    <t>USR369JS</t>
+  </si>
+  <si>
+    <t>USR579OB</t>
+  </si>
+  <si>
+    <t>USR710MW</t>
+  </si>
+  <si>
+    <t>USR523SJ</t>
+  </si>
+  <si>
+    <t>USR426DD</t>
+  </si>
+  <si>
+    <t>USR865IG</t>
+  </si>
+  <si>
+    <t>USR896NM</t>
+  </si>
+  <si>
+    <t>USR805AR</t>
+  </si>
+  <si>
+    <t>USR989EL</t>
+  </si>
+  <si>
+    <t>USR124MH</t>
+  </si>
+  <si>
+    <t>USR402AC</t>
+  </si>
+  <si>
+    <t>USR298CL</t>
+  </si>
+  <si>
+    <t>USR503BW</t>
+  </si>
+  <si>
+    <t>USR537AH</t>
+  </si>
+  <si>
+    <t>USR253WA</t>
+  </si>
+  <si>
+    <t>USR765HY</t>
+  </si>
+  <si>
+    <t>USR147JH</t>
+  </si>
+  <si>
+    <t>USR585EK</t>
+  </si>
+  <si>
+    <t>USR308LW</t>
+  </si>
+  <si>
+    <t>USR729AS</t>
+  </si>
+  <si>
+    <t>USR378JA</t>
+  </si>
+  <si>
+    <t>USR746AG</t>
+  </si>
+  <si>
+    <t>USR559LB</t>
+  </si>
+  <si>
+    <t>USR882CP</t>
+  </si>
+  <si>
+    <t>USR919MM</t>
+  </si>
+  <si>
+    <t>USR307AC</t>
+  </si>
+  <si>
+    <t>USR629LR</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>ZAMORRA</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>NOLAN</t>
+  </si>
+  <si>
+    <t>LUKA</t>
+  </si>
+  <si>
+    <t>BRAVERMAN</t>
+  </si>
+  <si>
+    <t>USR623LZ</t>
+  </si>
+  <si>
+    <t>USR623MN</t>
+  </si>
+  <si>
+    <t>USR494LB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1418,6 +1818,29 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1441,7 +1864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1454,6 +1877,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7317,12 +7744,801 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DC75AE-74EC-0246-BBE5-9C51CE4FF9F3}">
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H2" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I2" s="9">
+        <v>45530.198576388888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>466</v>
+      </c>
+      <c r="H3" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I3" s="9">
+        <v>45530.199560185189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D4" t="s">
+        <v>468</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>469</v>
+      </c>
+      <c r="H4" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I4" s="9">
+        <v>45530.20040509259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D5" t="s">
+        <v>471</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>472</v>
+      </c>
+      <c r="H5" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I5" s="9">
+        <v>45530.201979166668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D6" t="s">
+        <v>474</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H6" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I6" s="9">
+        <v>45530.202893518515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C7" t="s">
+        <v>476</v>
+      </c>
+      <c r="D7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H7" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I7" s="9">
+        <v>45530.203761574077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="C8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D8" t="s">
+        <v>480</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>481</v>
+      </c>
+      <c r="H8" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I8" s="9">
+        <v>45530.204652777778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C9" t="s">
+        <v>482</v>
+      </c>
+      <c r="D9" t="s">
+        <v>483</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>484</v>
+      </c>
+      <c r="H9" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I9" s="9">
+        <v>45530.205613425926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C10" t="s">
+        <v>485</v>
+      </c>
+      <c r="D10" t="s">
+        <v>486</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>487</v>
+      </c>
+      <c r="H10" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I10" s="9">
+        <v>45530.207256944443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C11" t="s">
+        <v>488</v>
+      </c>
+      <c r="D11" t="s">
+        <v>489</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>490</v>
+      </c>
+      <c r="H11" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I11" s="9">
+        <v>45530.208738425928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C12" t="s">
+        <v>491</v>
+      </c>
+      <c r="D12" t="s">
+        <v>492</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>493</v>
+      </c>
+      <c r="H12" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I12" s="9">
+        <v>45530.210358796299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C13" t="s">
+        <v>494</v>
+      </c>
+      <c r="D13" t="s">
+        <v>495</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>496</v>
+      </c>
+      <c r="H13" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I13" s="9">
+        <v>45530.211921296293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C14" t="s">
+        <v>497</v>
+      </c>
+      <c r="D14" t="s">
+        <v>498</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>499</v>
+      </c>
+      <c r="H14" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I14" s="9">
+        <v>45530.212905092594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C15" t="s">
+        <v>500</v>
+      </c>
+      <c r="D15" t="s">
+        <v>501</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>502</v>
+      </c>
+      <c r="H15" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I15" s="9">
+        <v>45530.214525462965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C16" t="s">
+        <v>503</v>
+      </c>
+      <c r="D16" t="s">
+        <v>504</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>505</v>
+      </c>
+      <c r="H16" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I16" s="9">
+        <v>45530.215451388889</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="C17" t="s">
+        <v>506</v>
+      </c>
+      <c r="D17" t="s">
+        <v>507</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>508</v>
+      </c>
+      <c r="H17" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I17" s="9">
+        <v>45530.216319444444</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C18" t="s">
+        <v>509</v>
+      </c>
+      <c r="D18" t="s">
+        <v>510</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>511</v>
+      </c>
+      <c r="H18" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I18" s="9">
+        <v>45530.217847222222</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C19" t="s">
+        <v>512</v>
+      </c>
+      <c r="D19" t="s">
+        <v>513</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>514</v>
+      </c>
+      <c r="H19" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I19" s="9">
+        <v>45530.21875</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C20" t="s">
+        <v>515</v>
+      </c>
+      <c r="D20" t="s">
+        <v>516</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>517</v>
+      </c>
+      <c r="H20" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I20" s="9">
+        <v>45530.219675925924</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C21" t="s">
+        <v>518</v>
+      </c>
+      <c r="D21" t="s">
+        <v>519</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>520</v>
+      </c>
+      <c r="H21" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I21" s="9">
+        <v>45530.221203703702</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C22" t="s">
+        <v>521</v>
+      </c>
+      <c r="D22" t="s">
+        <v>522</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>523</v>
+      </c>
+      <c r="H22" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I22" s="9">
+        <v>45530.22216435185</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C23" t="s">
+        <v>525</v>
+      </c>
+      <c r="D23" t="s">
+        <v>526</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>527</v>
+      </c>
+      <c r="H23" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I23" s="9">
+        <v>45530.223055555558</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C24" t="s">
+        <v>528</v>
+      </c>
+      <c r="D24" t="s">
+        <v>529</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>530</v>
+      </c>
+      <c r="H24" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I24" s="9">
+        <v>45530.223958333336</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="C25" t="s">
+        <v>531</v>
+      </c>
+      <c r="D25" t="s">
+        <v>532</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>533</v>
+      </c>
+      <c r="H25" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I25" s="9">
+        <v>45530.225543981483</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C26" t="s">
+        <v>534</v>
+      </c>
+      <c r="D26" t="s">
+        <v>535</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>536</v>
+      </c>
+      <c r="H26" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I26" s="9">
+        <v>45530.226446759261</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C27" t="s">
+        <v>537</v>
+      </c>
+      <c r="D27" t="s">
+        <v>538</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>539</v>
+      </c>
+      <c r="H27" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I27" s="9">
+        <v>45530.227337962962</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="C28" t="s">
+        <v>540</v>
+      </c>
+      <c r="D28" t="s">
+        <v>541</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>542</v>
+      </c>
+      <c r="H28" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I28" s="9">
+        <v>45530.228877314818</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C29" t="s">
+        <v>543</v>
+      </c>
+      <c r="D29" t="s">
+        <v>544</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>545</v>
+      </c>
+      <c r="H29" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I29" s="9">
+        <v>45530.229826388888</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C30" t="s">
+        <v>460</v>
+      </c>
+      <c r="D30" t="s">
+        <v>461</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>527</v>
+      </c>
+      <c r="H30" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I30" s="9">
+        <v>45530.230694444443</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="C31" t="s">
+        <v>574</v>
+      </c>
+      <c r="D31" t="s">
+        <v>575</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>530</v>
+      </c>
+      <c r="H31" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I31" s="9">
+        <v>45530.232291666667</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C32" t="s">
+        <v>576</v>
+      </c>
+      <c r="D32" t="s">
+        <v>577</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>533</v>
+      </c>
+      <c r="H32" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I32" s="9">
+        <v>45530.233912037038</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="D33" t="s">
+        <v>579</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>536</v>
+      </c>
+      <c r="H33" s="9">
+        <v>45530.197002314817</v>
+      </c>
+      <c r="I33" s="9">
+        <v>45530.234895833331</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="8"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C39" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A8EA3D-355C-C24B-93E7-F184F222BE06}">
   <dimension ref="A1:I188"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F188"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8441,7 +9657,7 @@
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>139</v>
@@ -11295,12 +12511,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACF5477-64CC-FF48-A134-5DFA4A519A53}">
   <dimension ref="A1:B167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
-      <selection sqref="A1:B21"/>
+    <sheetView topLeftCell="A11" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12072,7 +13288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4387E489-7C2E-E042-8A1E-AF6D475FA38F}">
   <dimension ref="A1:B14"/>
   <sheetViews>
